--- a/Shared Documentation/Luke's Documents/ProjectScheduleOverview Versions/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/ProjectScheduleOverview Versions/Clash of Cosplayers - Plan Outline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\ProjectScheduleOverview Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82816A39-62BC-4E6B-91B4-0098AE07140B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E5D691-2485-4C58-AC2B-DC7562CBB7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>Category/name</t>
   </si>
@@ -255,6 +255,30 @@
   </si>
   <si>
     <t>could use variety &amp; polish (not necessary though) needs better detection range</t>
+  </si>
+  <si>
+    <t>Picking up Corpses</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>equipement</t>
+  </si>
+  <si>
+    <t>would use equipment controls to pick things up</t>
+  </si>
+  <si>
+    <t>Trashcan death</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>Corpse Pick-up</t>
+  </si>
+  <si>
+    <t>make the AI try to pick up the player's ragdolled body then put it in the trashcan which will then be made the only way to kill the player</t>
   </si>
 </sst>
 </file>
@@ -775,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,86 +1163,98 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>11</v>
@@ -1226,54 +1262,70 @@
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
     </row>
